--- a/Diplom/MonitoringULBottle/PS_INFO/RZHNK.xlsx
+++ b/Diplom/MonitoringULBottle/PS_INFO/RZHNK.xlsx
@@ -46,7 +46,7 @@
     <t>Перечень действующих на территории Российской Федерации жилищных накопительных кооперативов, включенных в реестр жилищных накопительных кооперативов по состоянию на dd.mm.yyyy</t>
   </si>
   <si>
-    <t>Перечень действующих на территории Российской Федерации жилищных накопительных кооперативов, включенных в реестр жилищных накопительных кооперативов по состоянию на 09.01.2025</t>
+    <t>Перечень действующих на территории Российской Федерации жилищных накопительных кооперативов, включенных в реестр жилищных накопительных кооперативов по состоянию на 10.01.2025</t>
   </si>
   <si>
     <t>1</t>
